--- a/assets/stages/maps/MapEditor/Room13.xlsx
+++ b/assets/stages/maps/MapEditor/Room13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Python\Portal-2D-Python\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883A409-9E4E-4369-95CB-3AFB80C8B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C78011-1696-4EA1-A31F-C0C2D9DBC939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:S9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,9 @@
       <c r="Z7" s="1">
         <v>3</v>
       </c>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="1">
+        <v>-1</v>
+      </c>
       <c r="AB7" s="1">
         <v>-1</v>
       </c>
@@ -1974,16 +1976,16 @@
         <v>-1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>-1</v>
@@ -2072,16 +2074,16 @@
         <v>-1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>-1</v>
@@ -2236,7 +2238,7 @@
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:V2 K2:K4 V3:V4 C3:U5 W4:AE4 V5:AF5 C6:Q7 C6:G16 H7:P11 AA8:AF8 Q9:AF9 AE10:AE12 G12:O13 S12:AE13 P12:R14 Z12:AF14 H14:O14 S14:Y14 G15:AE18 S6:AF7 T13:U14 V12:W14 G10:AF11 G6:AE9">
+  <conditionalFormatting sqref="L2:V2 K2:K4 V3:V4 C3:U5 W4:AE4 V5:AF5 C6:Q7 S6:AF7 C6:G16 H7:P11 AA8:AF8 Q9:AF9 G10:AF11 AE10:AE12 G12:O13 S12:AE13 P12:R14 V12:W14 Z12:AF14 T13:U14 H14:O14 S14:Y14 G6:AE9 G15:AE18">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2934,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="P6:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>

--- a/assets/stages/maps/MapEditor/Room13.xlsx
+++ b/assets/stages/maps/MapEditor/Room13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Python\Portal-2D-Python\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C78011-1696-4EA1-A31F-C0C2D9DBC939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0BC5B-DFC7-439B-8601-7586FF828A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:Q18"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
         <v>-1</v>
       </c>
       <c r="V10" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W10" s="1">
         <v>3</v>
@@ -1694,10 +1694,10 @@
         <v>-1</v>
       </c>
       <c r="T13" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U13" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V13" s="1">
         <v>3</v>
@@ -1792,10 +1792,10 @@
         <v>-1</v>
       </c>
       <c r="T14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V14" s="1">
         <v>3</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>-1</v>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>-1</v>
@@ -2238,7 +2238,7 @@
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:V2 K2:K4 V3:V4 C3:U5 W4:AE4 V5:AF5 C6:Q7 S6:AF7 C6:G16 H7:P11 AA8:AF8 Q9:AF9 G10:AF11 AE10:AE12 G12:O13 S12:AE13 P12:R14 V12:W14 Z12:AF14 T13:U14 H14:O14 S14:Y14 G6:AE9 G15:AE18">
+  <conditionalFormatting sqref="L2:V2 K2:K4 V3:V4 C3:U5 W4:AE4 V5:AF5 C6:Q7 S6:AF7 G6:AE9 C6:G16 H7:P11 AA8:AF8 Q9:AF9 AE10:AE12 G12:O13 S12:AE13 P12:R14 V12:W14 Z12:AF14 T13:U14 H14:O14 S14:Y14 G15:AE18 G10:AF11">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
